--- a/assets/sounds/soundMasterList.xlsx
+++ b/assets/sounds/soundMasterList.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/sounds/soundMasterList.xlsx
+++ b/assets/sounds/soundMasterList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Trigger</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>wooshing sound</t>
+  </si>
+  <si>
+    <t>Implemented?</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,9 +450,10 @@
     <col min="2" max="2" width="48.77734375" customWidth="1"/>
     <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,10 +464,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -474,8 +481,9 @@
         <v>17</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -486,8 +494,9 @@
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -498,8 +507,9 @@
         <v>16</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -510,8 +520,9 @@
         <v>19</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -522,8 +533,9 @@
         <v>20</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -534,6 +546,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/sounds/soundMasterList.xlsx
+++ b/assets/sounds/soundMasterList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Trigger</t>
   </si>
@@ -85,13 +85,25 @@
   </si>
   <si>
     <t>Implemented?</t>
+  </si>
+  <si>
+    <t>conflicts with play piece sound, plays at same time</t>
+  </si>
+  <si>
+    <t>doesn't fit with theme</t>
+  </si>
+  <si>
+    <t>fine, but needs to not play in conflict with the select sound</t>
+  </si>
+  <si>
+    <t>kind of weird to hear 2 clicks.  Replace with just the first one</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +118,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +136,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,16 +153,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +468,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,8 +507,10 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -493,8 +522,10 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -506,8 +537,10 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -519,8 +552,8 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -532,8 +565,8 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -545,7 +578,9 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
   </sheetData>

--- a/assets/sounds/soundMasterList.xlsx
+++ b/assets/sounds/soundMasterList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Trigger</t>
   </si>
@@ -48,12 +48,6 @@
     <t>texture_whoosh_02_medium_01.wav</t>
   </si>
   <si>
-    <t>typewriter_type_03.wav</t>
-  </si>
-  <si>
-    <t>dice_popper_01.wav</t>
-  </si>
-  <si>
     <t>highlight_pleasant_06.wav</t>
   </si>
   <si>
@@ -63,15 +57,6 @@
     <t>Select number or operator, select help/settings button</t>
   </si>
   <si>
-    <t>guitar_wank_07.wav</t>
-  </si>
-  <si>
-    <t>quick guitar riff</t>
-  </si>
-  <si>
-    <t>two quick pop sounds in rapid succession</t>
-  </si>
-  <si>
     <t>single quick click</t>
   </si>
   <si>
@@ -90,13 +75,22 @@
     <t>conflicts with play piece sound, plays at same time</t>
   </si>
   <si>
-    <t>doesn't fit with theme</t>
-  </si>
-  <si>
-    <t>fine, but needs to not play in conflict with the select sound</t>
-  </si>
-  <si>
-    <t>kind of weird to hear 2 clicks.  Replace with just the first one</t>
+    <t>dice_popper_pop_01.wav</t>
+  </si>
+  <si>
+    <t>gong_hit_01.wav</t>
+  </si>
+  <si>
+    <t>card_deal_01.wav</t>
+  </si>
+  <si>
+    <t>single pop from a dice popper</t>
+  </si>
+  <si>
+    <t>edited gong hit, shortened</t>
+  </si>
+  <si>
+    <t>has a weird pop at the end of the sound</t>
   </si>
 </sst>
 </file>
@@ -468,7 +462,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -499,71 +493,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -576,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1"/>
     </row>
